--- a/Website_Picks.xlsx
+++ b/Website_Picks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Jesse/Documents/MyStuff/NBA Betting/NBA-Betting-21-22/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5180B2F6-223B-464C-A409-376FCCADA7DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{251E2CDC-9092-2C46-B9EF-430104E341EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="80" yWindow="500" windowWidth="25440" windowHeight="14420" xr2:uid="{E04E489C-F174-AF46-80F8-04031CDF73AD}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="541" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="90">
   <si>
     <t>Team</t>
   </si>
@@ -314,11 +314,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
     <numFmt numFmtId="165" formatCode="0.0%"/>
+    <numFmt numFmtId="166" formatCode="mm/dd/yyyy"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -339,6 +340,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -362,11 +369,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -682,10 +690,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7C8AC4A-3180-1D40-AA7C-CC225AA9D06A}">
-  <dimension ref="A1:J179"/>
+  <dimension ref="A1:J181"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A150" workbookViewId="0">
-      <selection activeCell="A179" sqref="A179"/>
+    <sheetView tabSelected="1" topLeftCell="A167" workbookViewId="0">
+      <selection activeCell="G181" sqref="G181"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4360,6 +4368,40 @@
         <v>-1.1000000000000001</v>
       </c>
     </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A180" s="1">
+        <v>44672</v>
+      </c>
+      <c r="B180" t="s">
+        <v>23</v>
+      </c>
+      <c r="C180" t="s">
+        <v>7</v>
+      </c>
+      <c r="D180">
+        <v>-145</v>
+      </c>
+      <c r="E180" t="s">
+        <v>6</v>
+      </c>
+      <c r="F180">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A181" s="4">
+        <v>44673</v>
+      </c>
+      <c r="B181" t="s">
+        <v>25</v>
+      </c>
+      <c r="C181" t="s">
+        <v>7</v>
+      </c>
+      <c r="D181">
+        <v>-135</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
